--- a/probability/Cu/3His/threshold.xlsx
+++ b/probability/Cu/3His/threshold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241113_Metal_Intaller_Data_Final\CU\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Cu\3His\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB3BC7C2-9616-4A35-BF51-1F56859E3ABA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9B7805-62D6-4A99-AABA-0C9BEF098E64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="10575" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="C2" s="2">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
